--- a/biology/Histoire de la zoologie et de la botanique/Nina_Tamarina/Nina_Tamarina.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nina_Tamarina/Nina_Tamarina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nina Alexandrovna Tamarina (Нина Александровна Тамарина), née le 8 septembre 1926 à Skopine (oblast de Riazan, URSS) et morte le 11 juillet 2018, est une entomologiste soviétique et russe qui fut la première femme à obtenir le titre de docteur ès sciences dans le domaine de l'entomologie, en URSS. Nina Tamarina est également la première à poser les fondements de l'entomologie technique.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nina Tamarina termine en 1949 la faculté de biologie et de géologie de l'université Lomonossov de Moscou à la chaire d'entomologie. Elle est aspirante au doctorat de 1949 à 1952 et défend sa thèse de troisième cycle en 1953, portant sur les insectes vivant dans les litières steppiques, à la suite de quoi elle est secrétaire scientifique de la faculté, puis en 1954 assistante scientifique et, en 1959-1960, elle dirige le laboratoire d'études des moyens de lutte contre l'épizootie et les maladies des plantes.
 Elle est docteur ès sciences en 1970, devenant la première femme de l'université de Moscou à obtenir ce titre dans le domaine de l'entomologie. Elle est nommée vice-doyenne de la faculté de biologie et professeur d'université en 1976. De 1983 à 1992, elle est vice-doyenne de l'université de Moscou, tout en y dirigeant la chaire d'entomologie de 1974 à 1992, année où elle prend sa retraite devenant professeur-consultant.
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Scientifique émérite de la fédération de Russie (1997)
 Ordre de l'Insigne d'honneur (1981)
